--- a/output/FSMData_02-09-2026_KUNSTLØP Oppvisning Bergen.xlsx
+++ b/output/FSMData_02-09-2026_KUNSTLØP Oppvisning Bergen.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="007A0B0B"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +443,6 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="18" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,65 +453,55 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>GivenName</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>FamilyName</t>
+          <t>ParticipantCode</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Påmelding</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ParticipantCode</t>
+          <t>Manglende i zip</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Musikk</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>EntryOrder</t>
+          <t>MusikkTid</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Music1</t>
+          <t>Club1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Music2</t>
+          <t>Club2</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Club1</t>
+          <t>ElementsFree</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>Club2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>ElementsFree</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
         <is>
           <t>ElementsShort</t>
         </is>
@@ -512,1046 +510,994 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Frida Pasko Hansen</t>
+          <t>Markestad, Hennie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frida Pasko</t>
+          <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hansen</t>
+          <t>9737012</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9002227</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hanna Tveita</t>
+          <t>Sævereid, Mie Mariell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hanna</t>
+          <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tveita</t>
+          <t>9541191</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10103568</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1F, 1S+1T, USp, 1Lo, SSp, ChSq, 1F+1T</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>T, USp, StSq, 1F+1T, 1Lo, SSp, 1S</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Frida Lovisa Østerberg</t>
+          <t>Kristoffersen, Anne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frida Lovisa</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Østerberg</t>
+          <t>9432285</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9539388</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Patricija Levickaite</t>
+          <t>Østerberg, Frida Lovisa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patricija</t>
+          <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Levickaite</t>
+          <t>9539388</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9920979</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1S, 1T, SSp, 1S, 1T, ChSq, USp</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aksel Eriksen</t>
+          <t>Tveita, Hanna Wangsuk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aksel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Eriksen</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LIL</t>
+          <t>Påmeldt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10116091</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FSKMSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eira Olava Bortne  Ludvigsen</t>
+          <t>Levickaite, Patricija</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eira Olava Bortne</t>
+          <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ludvigsen</t>
+          <t>9920979</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10210494</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1S, 1T, SSp, 1S, 1T, ChSq, USp</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aylin Morseth</t>
+          <t>Hansen, Frida Pasko</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aylin</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Morseth</t>
+          <t>9002227</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10269944</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1S, 1Lz+1T, USp, ChSq, 1S+1T, 1T, USp</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yuewei Li</t>
+          <t>He, Frida Qianlu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yuewei</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Li</t>
+          <t>9638831</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9077466</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1A, 2Lo, USp, T+T, SSp, F, StSq</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hennie  Markestad</t>
+          <t>Pinker-Spilde, Valentina</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hennie</t>
+          <t>Fana Idrettslag</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Markestad</t>
+          <t>9727172</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9737012</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1T+1T, Sp, 1S, ChSq, Sp, 1S+1T, 1T</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eleanora Egle</t>
+          <t>Morseth, Emilie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eleanora</t>
+          <t>Fana Idrettslag</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Egle</t>
+          <t>10190490</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9639788</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1S+1T, USp, 1T+1T, ChSq, 1T, 1S, USp</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anne Kristoffersen</t>
+          <t>Sandnes-Strømmen, Elena Sophia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Fana Idrettslag</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kristoffersen</t>
+          <t>9655458</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9432285</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Frida Qianlu He</t>
+          <t>Morseth, Aylin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Frida Qianlu</t>
+          <t>Fana Idrettslag</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>10269944</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9638831</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1S, 1Lz+1T, USp, ChSq, 1S+1T, 1T, USp</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1A, 2Lo, USp, T+T, SSp, F, StSq</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amanda Ansnes  Lima</t>
+          <t>Papdi, Sarolt Szofia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amanda Ansnes</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Lima</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
+          <t>Bergen Kunstløpklubb</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LIL</t>
+          <t>Påmeldt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9825577</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mie Mariell  Sævereid</t>
+          <t>Eriksen, Aksel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mie Mariell</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sævereid</t>
+          <t>10116091</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKMSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9541191</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1F, 1S+1T, USp, 1Lo, SSp, ChSq, 1F+1T</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Camilla Tveit</t>
+          <t>Lima, Amanda Ansnes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Camilla</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tveit</t>
+          <t>9825577</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LIL</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10047210</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Valentina Pinker-Spilde</t>
+          <t>Tveit, Camilla</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Valentina</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pinker-Spilde</t>
+          <t>10047210</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9727172</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1T+1T, Sp, 1S, ChSq, Sp, 1S+1T, 1T</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Szofia Papdi</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Szofia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Papdi</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BKK</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>10234084</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lam, Mina</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" s="1" t="inlineStr"/>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Avmeldt</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr"/>
+      <c r="J18" s="1" t="inlineStr"/>
+      <c r="K18" s="1" t="inlineStr"/>
+      <c r="L18" s="1" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Elena Sophia Sandnes-Strømmen</t>
+          <t>Ludvigsen, Eira Olava Bortne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Elena Sophia</t>
+          <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sandnes-Strømmen</t>
+          <t>10210494</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9655458</t>
-        </is>
-      </c>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Angela Chen</t>
+          <t>Kyte, Sara Barbro</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Chen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
+          <t>Bergen Kunstløpklubb</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>Påmeldt</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9865886</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1T, USp, ChSq, 1Lz, 1Lz, 1S, 1F, USp</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Emilie Morseth</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Emilie</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Morseth</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10190490</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1S+1T, USp, 1T+1T, ChSq, 1T, 1S, USp</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Halkjelsvik-Sæbø, Oda Eilin</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Fana Idrettslag</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>Avmeldt</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr"/>
+      <c r="J21" s="1" t="inlineStr"/>
+      <c r="K21" s="1" t="inlineStr"/>
+      <c r="L21" s="1" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aurelia Landschulze</t>
+          <t>Steen Rein, Mille Isabell</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aurelia</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Landschulze</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>Påmeldt</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9583455</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Li, Yuewei</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bergen Kunstløpklubb</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9077466</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Egle, Eleanora</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9639788</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chen, Angela</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fana Idrettslag</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9865886</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1T, USp, ChSq, 1Lz, 1Lz, 1S, 1F, USp</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Landschulze, Aurelia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fana Idrettslag</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9583455</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FSKWSINGLES-OPVISN--01------------</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kalvik, Leah</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>mangler</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/FSMData_02-09-2026_KUNSTLØP Oppvisning Bergen.xlsx
+++ b/output/FSMData_02-09-2026_KUNSTLØP Oppvisning Bergen.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,22 +25,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="007A0B0B"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,28 +508,28 @@
           <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9737012</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2:14</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -556,22 +546,18 @@
           <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9541191</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>ok</t>
@@ -580,11 +566,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1F, 1S+1T, USp, 1Lo, SSp, ChSq, 1F+1T</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -598,35 +580,31 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9432285</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2:16</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -640,28 +618,28 @@
           <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>9539388</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2:07</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -712,35 +690,31 @@
           <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9920979</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2:20</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1S, 1T, SSp, 1S, 1T, ChSq, USp</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -754,28 +728,28 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9002227</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2:16</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -792,35 +766,31 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9638831</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2:14</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1A, 2Lo, USp, T+T, SSp, F, StSq</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -834,35 +804,31 @@
           <t>Fana Idrettslag</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9727172</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2:14</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1T+1T, Sp, 1S, ChSq, Sp, 1S+1T, 1T</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -876,22 +842,18 @@
           <t>Fana Idrettslag</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10190490</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>ok</t>
@@ -900,11 +862,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1S+1T, USp, 1T+1T, ChSq, 1T, 1S, USp</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -918,22 +876,18 @@
           <t>Fana Idrettslag</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9655458</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>mangler</t>
@@ -956,22 +910,18 @@
           <t>Fana Idrettslag</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10269944</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>ok</t>
@@ -980,11 +930,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1S, 1Lz+1T, USp, ChSq, 1S+1T, 1T, USp</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1032,28 +978,28 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10116091</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>FSKMSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2:18</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1070,28 +1016,28 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9825577</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2:15</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1108,71 +1054,75 @@
           <t>Loddefjord IL</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10047210</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2:18</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Lam, Mina</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Loddefjord IL</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>Avmeldt</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>JA</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>mangler</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="1" t="inlineStr"/>
-      <c r="J18" s="1" t="inlineStr"/>
-      <c r="K18" s="1" t="inlineStr"/>
-      <c r="L18" s="1" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ludvigsen, Eira Olava Bortne</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bergen Kunstløpklubb</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2:15</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ludvigsen, Eira Olava Bortne</t>
+          <t>Kyte, Sara Barbro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1180,28 +1130,28 @@
           <t>Bergen Kunstløpklubb</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10210494</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2:13</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1210,12 +1160,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kyte, Sara Barbro</t>
+          <t>Steen Rein, Mille Isabell</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bergen Kunstløpklubb</t>
+          <t>Loddefjord IL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1232,53 +1182,61 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>mangler</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2:14</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Halkjelsvik-Sæbø, Oda Eilin</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Fana Idrettslag</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>Avmeldt</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>JA</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>mangler</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="inlineStr"/>
-      <c r="I21" s="1" t="inlineStr"/>
-      <c r="J21" s="1" t="inlineStr"/>
-      <c r="K21" s="1" t="inlineStr"/>
-      <c r="L21" s="1" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Li, Yuewei</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bergen Kunstløpklubb</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Påmeldt</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2:17</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Steen Rein, Mille Isabell</t>
+          <t>Egle, Eleanora</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1300,10 +1258,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>mangler</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2:14</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1312,36 +1274,36 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Li, Yuewei</t>
+          <t>Chen, Angela</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bergen Kunstløpklubb</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9077466</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+          <t>Fana Idrettslag</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2:17</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1350,36 +1312,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Egle, Eleanora</t>
+          <t>Landschulze, Aurelia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loddefjord IL</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9639788</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+          <t>Fana Idrettslag</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2:20</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1388,116 +1350,36 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chen, Angela</t>
+          <t>Kalvik, Leah</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fana Idrettslag</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9865886</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
+          <t>Loddefjord IL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Påmeldt</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>mangler</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1T, USp, ChSq, 1Lz, 1Lz, 1S, 1F, USp</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Landschulze, Aurelia</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fana Idrettslag</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>9583455</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>FSKWSINGLES-OPVISN--01------------</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Påmeldt</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Kalvik, Leah</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Loddefjord IL</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Påmeldt</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>JA</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>mangler</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
